--- a/Sidra_Subject_RevisionSheet.xlsx
+++ b/Sidra_Subject_RevisionSheet.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Science" sheetId="1" r:id="rId1"/>
     <sheet name="Hindi" sheetId="2" r:id="rId2"/>
+    <sheet name="Social Studies" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="166">
   <si>
     <t>Food: Our Basic Need</t>
   </si>
@@ -278,6 +279,246 @@
   </si>
   <si>
     <t>kabaddi ka khel</t>
+  </si>
+  <si>
+    <t>Globes and Maps</t>
+  </si>
+  <si>
+    <t>The Globe</t>
+  </si>
+  <si>
+    <t>maps</t>
+  </si>
+  <si>
+    <t>language of a map</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>legend or key</t>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>Our country its neighbours</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>india its land surface</t>
+  </si>
+  <si>
+    <t>states and union territores</t>
+  </si>
+  <si>
+    <t>unity in diversity</t>
+  </si>
+  <si>
+    <t>our neighbours</t>
+  </si>
+  <si>
+    <t>continent</t>
+  </si>
+  <si>
+    <t>himalayas</t>
+  </si>
+  <si>
+    <t>plateau</t>
+  </si>
+  <si>
+    <t>penisula</t>
+  </si>
+  <si>
+    <t>the northern mountains and northern plains</t>
+  </si>
+  <si>
+    <t>the northen mountains</t>
+  </si>
+  <si>
+    <t>the himadari range</t>
+  </si>
+  <si>
+    <t>the himachal range</t>
+  </si>
+  <si>
+    <t>the shiwalik range</t>
+  </si>
+  <si>
+    <t>the important of the himalayas</t>
+  </si>
+  <si>
+    <t>the northen plain</t>
+  </si>
+  <si>
+    <t>the ganga basin</t>
+  </si>
+  <si>
+    <t>the brahmaputra basin</t>
+  </si>
+  <si>
+    <t>the satluj basin</t>
+  </si>
+  <si>
+    <t>the important of the northen plains</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>glacier</t>
+  </si>
+  <si>
+    <t>perennial</t>
+  </si>
+  <si>
+    <t>basin</t>
+  </si>
+  <si>
+    <t>tributary</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>the plateau and its desert regions</t>
+  </si>
+  <si>
+    <t>the plateau region</t>
+  </si>
+  <si>
+    <t>the center highlands</t>
+  </si>
+  <si>
+    <t>the deccan plateau</t>
+  </si>
+  <si>
+    <t>rivers</t>
+  </si>
+  <si>
+    <t>the important of the plateau region</t>
+  </si>
+  <si>
+    <t>the great india desert</t>
+  </si>
+  <si>
+    <t>life in the desert</t>
+  </si>
+  <si>
+    <t>the important of desert</t>
+  </si>
+  <si>
+    <t>nomad</t>
+  </si>
+  <si>
+    <t>what is a plateau?</t>
+  </si>
+  <si>
+    <t>why do the rivers of south india not have water throghout the year</t>
+  </si>
+  <si>
+    <t>why is the plateau region important to us</t>
+  </si>
+  <si>
+    <t>which crops are grown in the desert</t>
+  </si>
+  <si>
+    <t>why is life in the desert difficult</t>
+  </si>
+  <si>
+    <t>the coastal plains and the island</t>
+  </si>
+  <si>
+    <t>the coastal plains</t>
+  </si>
+  <si>
+    <t>the western castal plain</t>
+  </si>
+  <si>
+    <t>the length of the indian coastline is about 7000. the average width of western coastal plains is 65 kilometer and that of the eastern coastal plains is 120 kilometers</t>
+  </si>
+  <si>
+    <t>the eastern coastal plains</t>
+  </si>
+  <si>
+    <t>the important of the coastal plains</t>
+  </si>
+  <si>
+    <t>the islands</t>
+  </si>
+  <si>
+    <t>the adman and nicobar islands</t>
+  </si>
+  <si>
+    <t>port blair the capital of andaman and nicobar islands</t>
+  </si>
+  <si>
+    <t>lakshadweep islands</t>
+  </si>
+  <si>
+    <t>the important of the islands</t>
+  </si>
+  <si>
+    <t>where do the western coastal plains lie</t>
+  </si>
+  <si>
+    <t>why do we see lighthouses along the konkan coast</t>
+  </si>
+  <si>
+    <t>what is the purspose of a port? Name two of indian's largest coast</t>
+  </si>
+  <si>
+    <t>what are the climate condition in the eastern coastal plains</t>
+  </si>
+  <si>
+    <t>what are the main occupations of people in the islands</t>
+  </si>
+  <si>
+    <t>the climate of india</t>
+  </si>
+  <si>
+    <t>factors affecting climate</t>
+  </si>
+  <si>
+    <t>seasons of india</t>
+  </si>
+  <si>
+    <t>monsoon</t>
+  </si>
+  <si>
+    <t>summar</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>what are the factors determining the climate of a place</t>
+  </si>
+  <si>
+    <t>how does climate affect our lives</t>
+  </si>
+  <si>
+    <t>name the important seasons in india</t>
+  </si>
+  <si>
+    <t>describe the summar season</t>
+  </si>
+  <si>
+    <t>how does india receive rainfall</t>
+  </si>
+  <si>
+    <t>north to south -&gt; 32000 km , east to west -&gt; 3000 km , we are sournded by water in three side - west arbain sea, east - bay of bangal , south : india ocean . Six part dived in physical part 1. the northen mountain 2. the northen plain ,3. the greate indian desert , 4peninsular plateau , 5.the coastal plains 6.islans</t>
   </si>
 </sst>
 </file>
@@ -344,12 +585,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1214,4 +1461,490 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F18:F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="43.81640625" customWidth="1"/>
+    <col min="3" max="3" width="46.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C8" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C9" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C10" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C11" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C12" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C13" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C14" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C15" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C21" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C22" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C23" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C24" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C25" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C27" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C28" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C29" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C30" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C31" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C32" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C33" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C34" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C35" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C36" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C37" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C38" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C39" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C40" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C41" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C42" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C44" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C45" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C46" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C47" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C48" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C49" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C50" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C51" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C52" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C53" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C54" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C55" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C56" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C57" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C59" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C60" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C61" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C62" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C63" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C64" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C65" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C66" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C67" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C68" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C69" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C70" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C71" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C73" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C74" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C75" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C76" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C77" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C78" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C79" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C80" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C81" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C82" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C83" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C84" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C85" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sidra_Subject_RevisionSheet.xlsx
+++ b/Sidra_Subject_RevisionSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Science" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="167">
   <si>
     <t>Food: Our Basic Need</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>north to south -&gt; 32000 km , east to west -&gt; 3000 km , we are sournded by water in three side - west arbain sea, east - bay of bangal , south : india ocean . Six part dived in physical part 1. the northen mountain 2. the northen plain ,3. the greate indian desert , 4peninsular plateau , 5.the coastal plains 6.islans</t>
+  </si>
+  <si>
+    <t>Protieins</t>
   </si>
 </sst>
 </file>
@@ -877,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F80"/>
+  <dimension ref="A2:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,367 +960,373 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>5</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>3</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C30" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>4</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>5</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C46" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>6</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C54" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>7</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C62" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
         <v>8</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C78" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1467,7 +1476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F18:F24"/>
     </sheetView>
   </sheetViews>
